--- a/data/long_dif/P23_6-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_6-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 26,46</t>
+          <t>9,2; 24,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 20,7</t>
+          <t>6,41; 20,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 25,57</t>
+          <t>6,14; 25,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 19,5</t>
+          <t>13,56; 48,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 22,33</t>
+          <t>10,27; 23,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,14</t>
+          <t>7,25; 18,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 27,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 34,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 21,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 16,96</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 22,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 37,1</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,82%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>53,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>74,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>76,48%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,66%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,7; 80,81</t>
+          <t>62,89; 81,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,11; 87,29</t>
+          <t>67,65; 85,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,78; 75,17</t>
+          <t>56,24; 83,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,17; 81,34</t>
+          <t>37,22; 69,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,93; 75,53</t>
+          <t>59,21; 76,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,7; 82,51</t>
+          <t>66,91; 81,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51,99; 72,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42,54; 69,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64,81; 78,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69,53; 81,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58,52; 74,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43,66; 65,01</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 19,77</t>
+          <t>6,11; 19,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,82</t>
+          <t>4,48; 19,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 25,26</t>
+          <t>6,22; 27,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 20,29</t>
+          <t>8,51; 33,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,99</t>
+          <t>8,73; 22,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,97</t>
+          <t>8,3; 19,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 29,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 35,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 18,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,62; 17,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 24,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 30,4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 20,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 22,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 25,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 20,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,04; 79,07</t>
+          <t>8,11; 21,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,4; 79,88</t>
+          <t>6,62; 23,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,74; 76,53</t>
+          <t>4,4; 16,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,47; 86,82</t>
+          <t>6,49; 29,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,49; 75,82</t>
+          <t>11,08; 25,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,84; 81,48</t>
+          <t>7,42; 16,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 19,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 25,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 20,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 18,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 15,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 23,61</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>70,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>81,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61,95%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,45; 28,44</t>
+          <t>54,02; 78,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 36,53</t>
+          <t>51,9; 79,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 19,31</t>
+          <t>50,22; 81,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,33</t>
+          <t>43,65; 82,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 21,95</t>
+          <t>61,19; 77,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 26,04</t>
+          <t>75,77; 87,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61,19; 79,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47,53; 69,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>61,4; 76,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64,89; 81,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,94; 77,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51,45; 73,33</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>19,71%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>14,5%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>19,9%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,09%</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,66</t>
+          <t>10,12; 36,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 26,86</t>
+          <t>9,44; 38,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,91; 26,55</t>
+          <t>11,53; 41,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,0</t>
+          <t>8,72; 39,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 24,73</t>
+          <t>7,87; 19,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 20,9</t>
+          <t>3,76; 10,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 26,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 34,64</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 24,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 23,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 31,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 32,32</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51,02; 70,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,16; 71,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>57,46; 70,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,61; 73,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>57,14; 68,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,41; 71,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20,13%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 31,54</t>
+          <t>14,28; 30,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,45; 23,39</t>
+          <t>12,52; 26,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,46</t>
+          <t>10,24; 28,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,46; 22,5</t>
+          <t>12,05; 28,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,85; 24,54</t>
+          <t>14,81; 25,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,7; 20,92</t>
+          <t>11,23; 19,45</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 21,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12,29; 27,67</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 25,29</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 20,66</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 21,83</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 24,08</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>60,06%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>67,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>68,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58,84%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>62,3%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>66,76%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>67,24%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,76; 32,2</t>
+          <t>47,02; 68,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,53; 24,04</t>
+          <t>57,81; 73,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,16; 21,75</t>
+          <t>56,26; 73,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,96; 27,79</t>
+          <t>41,24; 63,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,77; 24,61</t>
+          <t>58,34; 71,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,55; 23,94</t>
+          <t>61,98; 72,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,51; 74,27</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>49,8; 68,26</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56,03; 68,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62,16; 70,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61,64; 72,39</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>48,47; 62,68</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25,15%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>53,28; 68,23</t>
+          <t>11,86; 34,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>58,98; 73,94</t>
+          <t>11,66; 22,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>49,66; 63,13</t>
+          <t>12,21; 23,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50,61; 62,09</t>
+          <t>19,64; 40,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>53,73; 63,65</t>
+          <t>11,1; 21,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>57,22; 66,38</t>
+          <t>13,61; 22,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 21,62</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 30,33</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>13,1; 25,36</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 21,34</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 20,91</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 32,23</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,9; 20,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,67; 26,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,96; 22,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>29,84%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>17,93; 32,09</t>
+          <t>17,11; 31,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>12,53; 24,04</t>
+          <t>11,04; 24,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,09; 28,85</t>
+          <t>12,99; 25,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,05; 19,76</t>
+          <t>18,21; 35,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,33; 28,49</t>
+          <t>11,68; 21,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,81</t>
+          <t>17,77; 27,61</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 25,81</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 38,95</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 24,64</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>15,96; 24,28</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 23,63</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,17; 34,09</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>59,7%</t>
+          <t>61,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>67,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>56,16%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>59,58%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>59,23%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>61,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>50,47; 67,74</t>
+          <t>52,52; 68,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>58,96; 73,38</t>
+          <t>59,53; 73,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>54,03; 69,92</t>
+          <t>44,78; 63,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>57,14; 69,96</t>
+          <t>31,41; 52,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>54,82; 66,55</t>
+          <t>50,86; 63,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,04; 70,18</t>
+          <t>50,11; 61,61</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,06; 64,21</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>50,7; 68,34</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>54,53; 64,18</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>57,09; 65,81</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 62,12</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 56,57</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>22,58%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,52; 27,26</t>
+          <t>10,85; 20,91</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,71; 21,6</t>
+          <t>12,26; 22,19</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,53; 23,46</t>
+          <t>18,18; 40,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>16,24; 27,92</t>
+          <t>23,32; 45,46</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,06</t>
+          <t>21,41; 33,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>15,06; 23,05</t>
+          <t>16,75; 25,95</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 28,69</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 17,27</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 25,58</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 22,5</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>19,42; 32,12</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 30,57</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>12,34; 37,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,01; 28,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,27; 36,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,09; 22,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,49; 32,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,51; 22,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>44,43; 71,22</t>
+          <t>17,5; 31,04</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>52,97; 71,23</t>
+          <t>12,92; 25,07</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>44,87; 64,24</t>
+          <t>12,01; 28,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>53,43; 69,0</t>
+          <t>13,88; 30,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>49,37; 64,49</t>
+          <t>15,2; 28,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>56,48; 68,48</t>
+          <t>10,28; 20,67</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 25,23</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 23,01</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 27,81</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 20,55</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 23,28</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 23,81</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>56,85%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>64,05%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>56,74%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>51,38%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>60,03%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>65,19%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>58,17%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>53,96%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>13,08; 29,9</t>
+          <t>49,29; 66,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>11,56; 25,38</t>
+          <t>59,27; 73,35</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>12,1; 24,96</t>
+          <t>49,15; 68,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>15,28; 30,47</t>
+          <t>46,97; 67,65</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>14,31; 24,62</t>
+          <t>53,56; 69,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>14,62; 25,21</t>
+          <t>57,26; 70,54</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>47,25; 65,88</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>42,9; 61,38</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>54,22; 66,38</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>60,22; 69,5</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>51,71; 64,84</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>47,28; 60,85</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,01</t>
+          <t>11,07; 28,67</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,59</t>
+          <t>10,53; 21,46</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,91</t>
+          <t>15,17; 31,2</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>13,77; 17,86</t>
+          <t>13,51; 30,6</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,24</t>
+          <t>12,1; 24,16</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>13,95; 17,52</t>
+          <t>16,1; 27,67</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 33,69</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>24,83; 41,67</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 23,22</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 23,11</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 30,15</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>21,28; 33,64</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>59,81; 67,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>64,89; 72,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>59,04; 65,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>64,2; 69,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>60,13; 65,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>65,66; 70,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>13,45; 20,32</t>
+          <t>12,76; 33,58</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,38</t>
+          <t>13,44; 29,14</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,5</t>
+          <t>11,42; 31,7</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>15,07; 19,54</t>
+          <t>6,96; 25,8</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,44</t>
+          <t>17,99; 37,29</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>14,57; 18,34</t>
+          <t>11,61; 22,58</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 23,91</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 37,54</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 31,15</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>13,79; 23,28</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 23,24</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 28,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>56,53%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>62,41%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>55,59%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>69,0%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>55,28%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>61,27%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>57,0%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>55,81%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>61,77%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>56,39%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>63,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>45,49; 67,32</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>53,65; 71,19</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>43,56; 67,78</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>54,83; 80,5</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>45,42; 64,9</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>52,33; 69,25</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>46,48; 67,48</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>45,45; 73,12</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>48,92; 63,05</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>55,76; 67,23</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>49,21; 63,61</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>53,67; 73,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>26,94%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>18,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 31,69</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 24,59</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 37,99</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 29,62</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 26,31</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 30,27</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 37,42</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 32,88</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 25,87</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 25,78</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 34,0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 28,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 23,19</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 19,4</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 19,34</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 25,39</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 22,54</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 17,75</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 19,49</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 25,35</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 21,76</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 17,56</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 18,33</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 23,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>63,1%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>68,41%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>63,06%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>55,59%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>62,41%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>62,4%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>57,72%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>67,64%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>62,72%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>57,99; 66,65</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>64,35; 71,75</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>58,31; 67,65</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>50,19; 61,36</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>59,38; 65,6</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>64,08; 69,43</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>58,78; 65,91</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>52,42; 61,67</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>60,11; 65,47</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>65,24; 69,85</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>59,54; 65,66</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>53,37; 60,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>22,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 21,43</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 19,45</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 26,39</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 29,14</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 20,37</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 19,84</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>18,38; 24,43</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 25,68</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 19,94</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 18,7</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 24,26</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 26,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_6-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_6-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
